--- a/KnowledgeGraph/data/institution_category.xlsx
+++ b/KnowledgeGraph/data/institution_category.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18755" windowHeight="7812"/>
+    <workbookView windowWidth="20976" windowHeight="8472"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>名词</t>
   </si>
@@ -22,28 +22,40 @@
     <t>定义</t>
   </si>
   <si>
+    <t>别名</t>
+  </si>
+  <si>
     <t>国有银行</t>
   </si>
   <si>
-    <t>国有银行是国家拥有的银行，是指由国家（财政部、中央汇金公司）直接管控的大型银行。包括国有六大行（中国工商银行、中国农业银行、中国银行、中国建设银行、中国邮政储蓄银行、交通银行）以及国家开发银行、中国进出口银行、中国农业发展银行。</t>
+    <t>国有银行是国家拥有的银行,是指由国家（财政部、中央汇金公司）直接管控的大型银行。包括国有六大行（中国工商银行、中国农业银行、中国银行、中国建设银行、中国邮政储蓄银行、交通银行）以及国家开发银行、中国进出口银行、中国农业发展银行。</t>
+  </si>
+  <si>
+    <t>六大行,国行,国有六大行</t>
   </si>
   <si>
     <t>股份制银行</t>
   </si>
   <si>
-    <t>股份制银行是商业银行的一种，这是按照国家的公司法律条例，采用股份公司制形式建立起来的银行。</t>
+    <t>股份制银行是商业银行的一种,这是按照国家的公司法律条例,采用股份公司制形式建立起来的银行。</t>
+  </si>
+  <si>
+    <t>地方性银行</t>
   </si>
   <si>
     <t>城商行</t>
   </si>
   <si>
-    <t>城商行及城市商业银行，一般指地级市以上的地方商业银行。</t>
+    <t>城商行及城市商业银行,一般指地级市以上的地方商业银行。</t>
   </si>
   <si>
     <t>外资银行</t>
   </si>
   <si>
-    <t>外资银行是指在本国境内由外国独资创办的银行，经营范围根据各国银行法律和管理制度的不同而有所不同。</t>
+    <t>外资银行是指在本国境内由外国独资创办的银行,经营范围根据各国银行法律和管理制度的不同而有所不同。</t>
+  </si>
+  <si>
+    <t>外国投资银行</t>
   </si>
   <si>
     <t>农村合作金融机构</t>
@@ -55,7 +67,61 @@
     <t>理财子公司</t>
   </si>
   <si>
-    <t>理财子公司由商业银行作为控股股东发起设立的，并经国务院银行业监督管理机构批准；主要从事理财业务；独立于母行，具有独立法人地位的非银行金融机构。</t>
+    <t>理财子公司由商业银行作为控股股东发起设立的,并经国务院银行业监督管理机构批准；主要从事理财业务；独立于母行,具有独立法人地位的非银行金融机构。</t>
+  </si>
+  <si>
+    <t>子公司</t>
+  </si>
+  <si>
+    <t>地方性商业银行是指业务范围受地域限制的银行类金融机构。在我国地方性商业银行主要是指城市商业银行和农村信用合作社、城市信用合作社。虽然近年来我国地方商业银行得到了长足的发展,但其在资产规模、机构数量和人员总数等方面还远不能同国有商业银行与股份制商业银行相比。</t>
+  </si>
+  <si>
+    <t>地方银行</t>
+  </si>
+  <si>
+    <t>监管机构</t>
+  </si>
+  <si>
+    <t>对银行业金融机构的组织及其业务活动进行监督和管理的国家金融监管机构。</t>
+  </si>
+  <si>
+    <t>管理机构</t>
+  </si>
+  <si>
+    <t>金融协会</t>
+  </si>
+  <si>
+    <t>民间组织,多致力于组织金融行业和社会金融研究力量开展经济、金融理论研究,向社会公众宣传金 融政策、普及金融知识,提高金融理论和金融业务水平,促进我国金融业发展。</t>
+  </si>
+  <si>
+    <t>协会</t>
+  </si>
+  <si>
+    <t>全国性银行</t>
+  </si>
+  <si>
+    <t>全国性银行是指业务范围不受地域限制的银行类金融机构,可以在全国范围内提供服务。</t>
+  </si>
+  <si>
+    <t>全国银行,国内银行</t>
+  </si>
+  <si>
+    <t>政策性银行</t>
+  </si>
+  <si>
+    <t>政策性银行（policy lender/non-commercial bank）是指由政府创立,以贯彻政府的经济政策为目标,在特定领域开展金融业务的不以盈利为目的的专业性金融机构。</t>
+  </si>
+  <si>
+    <t>政策银行</t>
+  </si>
+  <si>
+    <t>中央银行</t>
+  </si>
+  <si>
+    <t>中央银行（Central Bank）国家中居主导地位的金融中心机构,是国家干预和调控国民经济发展的重要工具。负责制定并执行国家货币信用政策,独具货币发行权,实行金融监管。中国的中央银行为中国人民银行,简称央行。</t>
+  </si>
+  <si>
+    <t>央行</t>
   </si>
 </sst>
 </file>
@@ -63,9 +129,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -78,6 +144,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -91,23 +164,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,27 +225,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,6 +248,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -160,62 +263,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,187 +296,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +487,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,30 +534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -474,15 +545,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,19 +567,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,139 +607,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -994,68 +1063,158 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="3" width="145.37962962963" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
